--- a/output/0/tRNA-Glu-CTC-1-3.xlsx
+++ b/output/0/tRNA-Glu-CTC-1-3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="101">
   <si>
     <t>chr1</t>
   </si>
@@ -315,153 +315,6 @@
   </si>
   <si>
     <t>77% (59)</t>
-  </si>
-  <si>
-    <t>161424757</t>
-  </si>
-  <si>
-    <t>161424780</t>
-  </si>
-  <si>
-    <t>161424777</t>
-  </si>
-  <si>
-    <t>CGTTGGCCGGGAATCGAACC</t>
-  </si>
-  <si>
-    <t>50% (45)</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>161424758</t>
-  </si>
-  <si>
-    <t>161424781</t>
-  </si>
-  <si>
-    <t>161424778</t>
-  </si>
-  <si>
-    <t>GTTGGCCGGGAATCGAACCC</t>
-  </si>
-  <si>
-    <t>66% (55)</t>
-  </si>
-  <si>
-    <t>79% (60)</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>161424763</t>
-  </si>
-  <si>
-    <t>161424786</t>
-  </si>
-  <si>
-    <t>161424766</t>
-  </si>
-  <si>
-    <t>GTTGACCCGGGTTCGATTCC</t>
-  </si>
-  <si>
-    <t>13% (34)</t>
-  </si>
-  <si>
-    <t>29% (35)</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>161424770</t>
-  </si>
-  <si>
-    <t>161424793</t>
-  </si>
-  <si>
-    <t>161424790</t>
-  </si>
-  <si>
-    <t>TCGAACCCGGGTCAACTGCT</t>
-  </si>
-  <si>
-    <t>TGG</t>
-  </si>
-  <si>
-    <t>53% (51)</t>
-  </si>
-  <si>
-    <t>71% (55)</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>161424774</t>
-  </si>
-  <si>
-    <t>161424797</t>
-  </si>
-  <si>
-    <t>161424794</t>
-  </si>
-  <si>
-    <t>ACCCGGGTCAACTGCTTGGA</t>
-  </si>
-  <si>
-    <t>76% (58)</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>161424775</t>
-  </si>
-  <si>
-    <t>161424798</t>
-  </si>
-  <si>
-    <t>GCCTTCCAAGCAGTTGACCC</t>
-  </si>
-  <si>
-    <t>37% (39)</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>161424776</t>
-  </si>
-  <si>
-    <t>161424799</t>
-  </si>
-  <si>
-    <t>161424779</t>
-  </si>
-  <si>
-    <t>TGCCTTCCAAGCAGTTGACC</t>
-  </si>
-  <si>
-    <t>43% (48)</t>
-  </si>
-  <si>
-    <t>9% (21)</t>
-  </si>
-  <si>
-    <t>76</t>
   </si>
 </sst>
 </file>
@@ -506,7 +359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1338,832 +1191,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" t="s">
-        <v>104</v>
-      </c>
-      <c r="L15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M15" t="s">
-        <v>10</v>
-      </c>
-      <c r="N15" t="s">
-        <v>79</v>
-      </c>
-      <c r="O15" t="s">
-        <v>105</v>
-      </c>
-      <c r="P15" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>107</v>
-      </c>
-      <c r="R15" t="s">
-        <v>15</v>
-      </c>
-      <c r="S15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" t="s">
-        <v>110</v>
-      </c>
-      <c r="H16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" t="s">
-        <v>10</v>
-      </c>
-      <c r="N16" t="s">
-        <v>112</v>
-      </c>
-      <c r="O16" t="s">
-        <v>113</v>
-      </c>
-      <c r="P16" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>75</v>
-      </c>
-      <c r="R16" t="s">
-        <v>15</v>
-      </c>
-      <c r="S16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" t="s">
-        <v>116</v>
-      </c>
-      <c r="H17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" t="s">
-        <v>118</v>
-      </c>
-      <c r="L17" t="s">
-        <v>9</v>
-      </c>
-      <c r="M17" t="s">
-        <v>10</v>
-      </c>
-      <c r="N17" t="s">
-        <v>119</v>
-      </c>
-      <c r="O17" t="s">
-        <v>120</v>
-      </c>
-      <c r="P17" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>122</v>
-      </c>
-      <c r="R17" t="s">
-        <v>15</v>
-      </c>
-      <c r="S17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" t="s">
-        <v>125</v>
-      </c>
-      <c r="H18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" t="s">
-        <v>126</v>
-      </c>
-      <c r="L18" t="s">
-        <v>127</v>
-      </c>
-      <c r="M18" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" t="s">
-        <v>128</v>
-      </c>
-      <c r="O18" t="s">
-        <v>129</v>
-      </c>
-      <c r="P18" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>130</v>
-      </c>
-      <c r="R18" t="s">
-        <v>15</v>
-      </c>
-      <c r="S18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" t="s">
-        <v>131</v>
-      </c>
-      <c r="G19" t="s">
-        <v>133</v>
-      </c>
-      <c r="H19" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" t="s">
-        <v>134</v>
-      </c>
-      <c r="L19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M19" t="s">
-        <v>10</v>
-      </c>
-      <c r="N19" t="s">
-        <v>128</v>
-      </c>
-      <c r="O19" t="s">
-        <v>135</v>
-      </c>
-      <c r="P19" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>137</v>
-      </c>
-      <c r="R19" t="s">
-        <v>15</v>
-      </c>
-      <c r="S19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" t="s">
-        <v>139</v>
-      </c>
-      <c r="H20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" t="s">
-        <v>140</v>
-      </c>
-      <c r="L20" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" t="s">
-        <v>10</v>
-      </c>
-      <c r="N20" t="s">
-        <v>87</v>
-      </c>
-      <c r="O20" t="s">
-        <v>141</v>
-      </c>
-      <c r="P20" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>75</v>
-      </c>
-      <c r="R20" t="s">
-        <v>15</v>
-      </c>
-      <c r="S20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" t="s">
-        <v>145</v>
-      </c>
-      <c r="G21" t="s">
-        <v>144</v>
-      </c>
-      <c r="H21" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" t="s">
-        <v>146</v>
-      </c>
-      <c r="L21" t="s">
-        <v>9</v>
-      </c>
-      <c r="M21" t="s">
-        <v>10</v>
-      </c>
-      <c r="N21" t="s">
-        <v>147</v>
-      </c>
-      <c r="O21" t="s">
-        <v>148</v>
-      </c>
-      <c r="P21" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>149</v>
-      </c>
-      <c r="R21" t="s">
-        <v>15</v>
-      </c>
-      <c r="S21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" t="s">
-        <v>103</v>
-      </c>
-      <c r="H22" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" t="s">
-        <v>104</v>
-      </c>
-      <c r="L22" t="s">
-        <v>9</v>
-      </c>
-      <c r="M22" t="s">
-        <v>10</v>
-      </c>
-      <c r="N22" t="s">
-        <v>79</v>
-      </c>
-      <c r="O22" t="s">
-        <v>105</v>
-      </c>
-      <c r="P22" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>107</v>
-      </c>
-      <c r="R22" t="s">
-        <v>15</v>
-      </c>
-      <c r="S22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" t="s">
-        <v>108</v>
-      </c>
-      <c r="G23" t="s">
-        <v>110</v>
-      </c>
-      <c r="H23" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" t="s">
-        <v>111</v>
-      </c>
-      <c r="L23" t="s">
-        <v>19</v>
-      </c>
-      <c r="M23" t="s">
-        <v>10</v>
-      </c>
-      <c r="N23" t="s">
-        <v>112</v>
-      </c>
-      <c r="O23" t="s">
-        <v>113</v>
-      </c>
-      <c r="P23" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>75</v>
-      </c>
-      <c r="R23" t="s">
-        <v>15</v>
-      </c>
-      <c r="S23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" t="s">
-        <v>117</v>
-      </c>
-      <c r="G24" t="s">
-        <v>116</v>
-      </c>
-      <c r="H24" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" t="s">
-        <v>7</v>
-      </c>
-      <c r="K24" t="s">
-        <v>118</v>
-      </c>
-      <c r="L24" t="s">
-        <v>9</v>
-      </c>
-      <c r="M24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N24" t="s">
-        <v>119</v>
-      </c>
-      <c r="O24" t="s">
-        <v>120</v>
-      </c>
-      <c r="P24" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>122</v>
-      </c>
-      <c r="R24" t="s">
-        <v>15</v>
-      </c>
-      <c r="S24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" t="s">
-        <v>124</v>
-      </c>
-      <c r="D25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" t="s">
-        <v>123</v>
-      </c>
-      <c r="G25" t="s">
-        <v>125</v>
-      </c>
-      <c r="H25" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" t="s">
-        <v>7</v>
-      </c>
-      <c r="K25" t="s">
-        <v>126</v>
-      </c>
-      <c r="L25" t="s">
-        <v>127</v>
-      </c>
-      <c r="M25" t="s">
-        <v>10</v>
-      </c>
-      <c r="N25" t="s">
-        <v>128</v>
-      </c>
-      <c r="O25" t="s">
-        <v>129</v>
-      </c>
-      <c r="P25" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>130</v>
-      </c>
-      <c r="R25" t="s">
-        <v>15</v>
-      </c>
-      <c r="S25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" t="s">
-        <v>132</v>
-      </c>
-      <c r="D26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" t="s">
-        <v>131</v>
-      </c>
-      <c r="G26" t="s">
-        <v>133</v>
-      </c>
-      <c r="H26" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" t="s">
-        <v>7</v>
-      </c>
-      <c r="K26" t="s">
-        <v>134</v>
-      </c>
-      <c r="L26" t="s">
-        <v>34</v>
-      </c>
-      <c r="M26" t="s">
-        <v>10</v>
-      </c>
-      <c r="N26" t="s">
-        <v>128</v>
-      </c>
-      <c r="O26" t="s">
-        <v>135</v>
-      </c>
-      <c r="P26" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>137</v>
-      </c>
-      <c r="R26" t="s">
-        <v>15</v>
-      </c>
-      <c r="S26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27" t="s">
-        <v>139</v>
-      </c>
-      <c r="D27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" t="s">
-        <v>110</v>
-      </c>
-      <c r="G27" t="s">
-        <v>139</v>
-      </c>
-      <c r="H27" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" t="s">
-        <v>7</v>
-      </c>
-      <c r="K27" t="s">
-        <v>140</v>
-      </c>
-      <c r="L27" t="s">
-        <v>19</v>
-      </c>
-      <c r="M27" t="s">
-        <v>10</v>
-      </c>
-      <c r="N27" t="s">
-        <v>87</v>
-      </c>
-      <c r="O27" t="s">
-        <v>141</v>
-      </c>
-      <c r="P27" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>75</v>
-      </c>
-      <c r="R27" t="s">
-        <v>15</v>
-      </c>
-      <c r="S27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" t="s">
-        <v>144</v>
-      </c>
-      <c r="D28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" t="s">
-        <v>145</v>
-      </c>
-      <c r="G28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H28" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" t="s">
-        <v>6</v>
-      </c>
-      <c r="J28" t="s">
-        <v>7</v>
-      </c>
-      <c r="K28" t="s">
-        <v>146</v>
-      </c>
-      <c r="L28" t="s">
-        <v>9</v>
-      </c>
-      <c r="M28" t="s">
-        <v>10</v>
-      </c>
-      <c r="N28" t="s">
-        <v>147</v>
-      </c>
-      <c r="O28" t="s">
-        <v>148</v>
-      </c>
-      <c r="P28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>149</v>
-      </c>
-      <c r="R28" t="s">
-        <v>15</v>
-      </c>
-      <c r="S28" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
